--- a/binaries/FCfiles/FCMarkups.xlsx
+++ b/binaries/FCfiles/FCMarkups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="198">
   <si>
     <t>shipmentType</t>
   </si>
@@ -429,12 +429,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>51453855</t>
-  </si>
-  <si>
-    <t>51453856</t>
-  </si>
-  <si>
     <t>51453857</t>
   </si>
   <si>
@@ -607,6 +601,15 @@
   </si>
   <si>
     <t>51453919</t>
+  </si>
+  <si>
+    <t>51480562</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>51480563</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -692,11 +695,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -766,11 +780,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,9 +1083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,8 +1237,8 @@
       <c r="O2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>137</v>
+      <c r="P2" s="70" t="s">
+        <v>195</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>26</v>
@@ -1233,7 +1249,9 @@
       <c r="S2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="69"/>
+      <c r="W2" s="71" t="s">
+        <v>196</v>
+      </c>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24">
@@ -1282,8 +1300,8 @@
       <c r="O3" s="1">
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>138</v>
+      <c r="P3" s="72" t="s">
+        <v>197</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>27</v>
@@ -1294,8 +1312,10 @@
       <c r="S3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
+      <c r="W3" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="67"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
@@ -1343,8 +1363,8 @@
       <c r="O4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>139</v>
+      <c r="P4" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>27</v>
@@ -1355,8 +1375,8 @@
       <c r="S4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
@@ -1404,8 +1424,8 @@
       <c r="O5" s="1">
         <v>10</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>140</v>
+      <c r="P5" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>27</v>
@@ -1416,8 +1436,8 @@
       <c r="S5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
@@ -1465,8 +1485,8 @@
       <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>141</v>
+      <c r="P6" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>27</v>
@@ -1477,8 +1497,8 @@
       <c r="S6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
@@ -1526,8 +1546,8 @@
       <c r="O7" s="1">
         <v>10</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>142</v>
+      <c r="P7" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>26</v>
@@ -1538,7 +1558,7 @@
       <c r="S7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="67"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24">
@@ -1587,8 +1607,8 @@
       <c r="O8" s="1">
         <v>10</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>143</v>
+      <c r="P8" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>27</v>
@@ -1599,8 +1619,8 @@
       <c r="S8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
@@ -1648,8 +1668,8 @@
       <c r="O9" s="1">
         <v>10</v>
       </c>
-      <c r="P9" s="16" t="s">
-        <v>144</v>
+      <c r="P9" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>27</v>
@@ -1660,8 +1680,8 @@
       <c r="S9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
@@ -1709,8 +1729,8 @@
       <c r="O10" s="1">
         <v>10</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>145</v>
+      <c r="P10" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>27</v>
@@ -1721,8 +1741,8 @@
       <c r="S10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
@@ -1770,8 +1790,8 @@
       <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>146</v>
+      <c r="P11" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>27</v>
@@ -1782,8 +1802,8 @@
       <c r="S11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
@@ -1831,8 +1851,8 @@
       <c r="O12" s="1">
         <v>10</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>147</v>
+      <c r="P12" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>26</v>
@@ -1843,7 +1863,7 @@
       <c r="S12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="67"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24">
@@ -1892,8 +1912,8 @@
       <c r="O13" s="1">
         <v>10</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>148</v>
+      <c r="P13" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>27</v>
@@ -1904,8 +1924,8 @@
       <c r="S13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
@@ -1953,8 +1973,8 @@
       <c r="O14" s="1">
         <v>10</v>
       </c>
-      <c r="P14" s="21" t="s">
-        <v>149</v>
+      <c r="P14" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>27</v>
@@ -1965,8 +1985,8 @@
       <c r="S14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
@@ -2014,8 +2034,8 @@
       <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="P15" s="22" t="s">
-        <v>150</v>
+      <c r="P15" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>27</v>
@@ -2026,8 +2046,8 @@
       <c r="S15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
@@ -2075,8 +2095,8 @@
       <c r="O16" s="1">
         <v>10</v>
       </c>
-      <c r="P16" s="23" t="s">
-        <v>151</v>
+      <c r="P16" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>27</v>
@@ -2087,8 +2107,8 @@
       <c r="S16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="4" t="s">
@@ -2136,8 +2156,8 @@
       <c r="O17" s="1">
         <v>10</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>152</v>
+      <c r="P17" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>26</v>
@@ -2148,7 +2168,7 @@
       <c r="S17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="69"/>
+      <c r="W17" s="67"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24">
@@ -2197,8 +2217,8 @@
       <c r="O18" s="1">
         <v>10</v>
       </c>
-      <c r="P18" s="25" t="s">
-        <v>153</v>
+      <c r="P18" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>27</v>
@@ -2209,8 +2229,8 @@
       <c r="S18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="4" t="s">
@@ -2258,8 +2278,8 @@
       <c r="O19" s="1">
         <v>10</v>
       </c>
-      <c r="P19" s="26" t="s">
-        <v>154</v>
+      <c r="P19" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>27</v>
@@ -2270,8 +2290,8 @@
       <c r="S19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="4" t="s">
@@ -2319,8 +2339,8 @@
       <c r="O20" s="1">
         <v>10</v>
       </c>
-      <c r="P20" s="27" t="s">
-        <v>155</v>
+      <c r="P20" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>27</v>
@@ -2331,8 +2351,8 @@
       <c r="S20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="4" t="s">
@@ -2380,8 +2400,8 @@
       <c r="O21" s="1">
         <v>10</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>156</v>
+      <c r="P21" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>27</v>
@@ -2392,8 +2412,8 @@
       <c r="S21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
@@ -2441,8 +2461,8 @@
       <c r="O22" s="1">
         <v>10</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>157</v>
+      <c r="P22" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>26</v>
@@ -2453,8 +2473,8 @@
       <c r="S22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="69"/>
-      <c r="X22" s="71"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="69"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
@@ -2502,8 +2522,8 @@
       <c r="O23" s="1">
         <v>10</v>
       </c>
-      <c r="P23" s="30" t="s">
-        <v>158</v>
+      <c r="P23" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>27</v>
@@ -2514,8 +2534,8 @@
       <c r="S23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
@@ -2563,8 +2583,8 @@
       <c r="O24" s="1">
         <v>10</v>
       </c>
-      <c r="P24" s="31" t="s">
-        <v>159</v>
+      <c r="P24" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>27</v>
@@ -2575,8 +2595,8 @@
       <c r="S24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
@@ -2624,8 +2644,8 @@
       <c r="O25" s="1">
         <v>10</v>
       </c>
-      <c r="P25" s="32" t="s">
-        <v>160</v>
+      <c r="P25" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>27</v>
@@ -2636,8 +2656,8 @@
       <c r="S25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
@@ -2685,8 +2705,8 @@
       <c r="O26" s="1">
         <v>10</v>
       </c>
-      <c r="P26" s="33" t="s">
-        <v>161</v>
+      <c r="P26" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>27</v>
@@ -2697,8 +2717,8 @@
       <c r="S26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="3" t="s">
@@ -2746,8 +2766,8 @@
       <c r="O27" s="1">
         <v>10</v>
       </c>
-      <c r="P27" s="34" t="s">
-        <v>162</v>
+      <c r="P27" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="Q27" s="5">
         <v>0</v>
@@ -2758,7 +2778,7 @@
       <c r="S27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="69"/>
+      <c r="W27" s="67"/>
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24">
@@ -2807,8 +2827,8 @@
       <c r="O28" s="1">
         <v>10</v>
       </c>
-      <c r="P28" s="35" t="s">
-        <v>163</v>
+      <c r="P28" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>27</v>
@@ -2819,8 +2839,8 @@
       <c r="S28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="3" t="s">
@@ -2868,8 +2888,8 @@
       <c r="O29" s="1">
         <v>10</v>
       </c>
-      <c r="P29" s="36" t="s">
-        <v>164</v>
+      <c r="P29" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>27</v>
@@ -2880,8 +2900,8 @@
       <c r="S29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="3" t="s">
@@ -2929,8 +2949,8 @@
       <c r="O30" s="1">
         <v>10</v>
       </c>
-      <c r="P30" s="37" t="s">
-        <v>165</v>
+      <c r="P30" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>27</v>
@@ -2941,8 +2961,8 @@
       <c r="S30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="3" t="s">
@@ -2990,8 +3010,8 @@
       <c r="O31" s="1">
         <v>10</v>
       </c>
-      <c r="P31" s="38" t="s">
-        <v>166</v>
+      <c r="P31" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>27</v>
@@ -3002,8 +3022,8 @@
       <c r="S31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="3" t="s">
@@ -3069,7 +3089,7 @@
       <c r="V32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W32" s="69"/>
+      <c r="W32" s="67"/>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24">
@@ -3136,8 +3156,8 @@
       <c r="V33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="3" t="s">
@@ -3203,8 +3223,8 @@
       <c r="V34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="3" t="s">
@@ -3270,8 +3290,8 @@
       <c r="V35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="3" t="s">
@@ -3337,8 +3357,8 @@
       <c r="V36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="3" t="s">
@@ -3386,8 +3406,8 @@
       <c r="O37" s="1">
         <v>11</v>
       </c>
-      <c r="P37" s="39" t="s">
-        <v>167</v>
+      <c r="P37" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>26</v>
@@ -3398,8 +3418,8 @@
       <c r="S37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W37" s="69"/>
-      <c r="X37" s="71"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="69"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="3" t="s">
@@ -3447,8 +3467,8 @@
       <c r="O38" s="1">
         <v>11</v>
       </c>
-      <c r="P38" s="40" t="s">
-        <v>168</v>
+      <c r="P38" s="38" t="s">
+        <v>166</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>27</v>
@@ -3459,8 +3479,8 @@
       <c r="S38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="3" t="s">
@@ -3508,8 +3528,8 @@
       <c r="O39" s="1">
         <v>11</v>
       </c>
-      <c r="P39" s="41" t="s">
-        <v>169</v>
+      <c r="P39" s="39" t="s">
+        <v>167</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>27</v>
@@ -3520,8 +3540,8 @@
       <c r="S39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="3" t="s">
@@ -3569,8 +3589,8 @@
       <c r="O40" s="1">
         <v>11</v>
       </c>
-      <c r="P40" s="42" t="s">
-        <v>170</v>
+      <c r="P40" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>27</v>
@@ -3581,8 +3601,8 @@
       <c r="S40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="3" t="s">
@@ -3630,8 +3650,8 @@
       <c r="O41" s="1">
         <v>11</v>
       </c>
-      <c r="P41" s="43" t="s">
-        <v>171</v>
+      <c r="P41" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>27</v>
@@ -3642,8 +3662,8 @@
       <c r="S41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="3" t="s">
@@ -3691,8 +3711,8 @@
       <c r="O42" s="1">
         <v>11</v>
       </c>
-      <c r="P42" s="44" t="s">
-        <v>172</v>
+      <c r="P42" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>26</v>
@@ -3703,7 +3723,7 @@
       <c r="S42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W42" s="69"/>
+      <c r="W42" s="67"/>
       <c r="X42" s="3"/>
     </row>
     <row r="43" spans="1:24">
@@ -3752,8 +3772,8 @@
       <c r="O43" s="1">
         <v>11</v>
       </c>
-      <c r="P43" s="45" t="s">
-        <v>173</v>
+      <c r="P43" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="Q43" s="5" t="s">
         <v>27</v>
@@ -3764,8 +3784,8 @@
       <c r="S43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="3" t="s">
@@ -3813,8 +3833,8 @@
       <c r="O44" s="1">
         <v>11</v>
       </c>
-      <c r="P44" s="46" t="s">
-        <v>174</v>
+      <c r="P44" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>27</v>
@@ -3825,8 +3845,8 @@
       <c r="S44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W44" s="69"/>
-      <c r="X44" s="69"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="3" t="s">
@@ -3874,8 +3894,8 @@
       <c r="O45" s="1">
         <v>11</v>
       </c>
-      <c r="P45" s="47" t="s">
-        <v>175</v>
+      <c r="P45" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>27</v>
@@ -3886,8 +3906,8 @@
       <c r="S45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W45" s="69"/>
-      <c r="X45" s="69"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="3" t="s">
@@ -3935,8 +3955,8 @@
       <c r="O46" s="1">
         <v>11</v>
       </c>
-      <c r="P46" s="48" t="s">
-        <v>176</v>
+      <c r="P46" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="Q46" s="5" t="s">
         <v>27</v>
@@ -3947,8 +3967,8 @@
       <c r="S46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W46" s="69"/>
-      <c r="X46" s="69"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="3" t="s">
@@ -3996,8 +4016,8 @@
       <c r="O47" s="1">
         <v>10</v>
       </c>
-      <c r="P47" s="49" t="s">
-        <v>177</v>
+      <c r="P47" s="47" t="s">
+        <v>175</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>26</v>
@@ -4008,7 +4028,7 @@
       <c r="S47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="69"/>
+      <c r="W47" s="67"/>
       <c r="X47" s="3"/>
     </row>
     <row r="48" spans="1:24">
@@ -4057,8 +4077,8 @@
       <c r="O48" s="1">
         <v>10</v>
       </c>
-      <c r="P48" s="50" t="s">
-        <v>178</v>
+      <c r="P48" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>27</v>
@@ -4069,8 +4089,8 @@
       <c r="S48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="69"/>
-      <c r="X48" s="69"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="3" t="s">
@@ -4118,8 +4138,8 @@
       <c r="O49" s="1">
         <v>10</v>
       </c>
-      <c r="P49" s="51" t="s">
-        <v>179</v>
+      <c r="P49" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>27</v>
@@ -4130,8 +4150,8 @@
       <c r="S49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W49" s="69"/>
-      <c r="X49" s="69"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="3" t="s">
@@ -4179,8 +4199,8 @@
       <c r="O50" s="1">
         <v>10</v>
       </c>
-      <c r="P50" s="52" t="s">
-        <v>180</v>
+      <c r="P50" s="50" t="s">
+        <v>178</v>
       </c>
       <c r="Q50" s="5" t="s">
         <v>27</v>
@@ -4191,8 +4211,8 @@
       <c r="S50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W50" s="69"/>
-      <c r="X50" s="69"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="3" t="s">
@@ -4240,8 +4260,8 @@
       <c r="O51" s="1">
         <v>10</v>
       </c>
-      <c r="P51" s="53" t="s">
-        <v>181</v>
+      <c r="P51" s="51" t="s">
+        <v>179</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>27</v>
@@ -4252,8 +4272,8 @@
       <c r="S51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="3" t="s">
@@ -4301,8 +4321,8 @@
       <c r="O52" s="1">
         <v>10</v>
       </c>
-      <c r="P52" s="54" t="s">
-        <v>182</v>
+      <c r="P52" s="52" t="s">
+        <v>180</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>26</v>
@@ -4313,7 +4333,7 @@
       <c r="S52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W52" s="69"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="3"/>
     </row>
     <row r="53" spans="1:24">
@@ -4362,8 +4382,8 @@
       <c r="O53" s="1">
         <v>10</v>
       </c>
-      <c r="P53" s="55" t="s">
-        <v>183</v>
+      <c r="P53" s="53" t="s">
+        <v>181</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>27</v>
@@ -4374,8 +4394,8 @@
       <c r="S53" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="3" t="s">
@@ -4423,8 +4443,8 @@
       <c r="O54" s="1">
         <v>10</v>
       </c>
-      <c r="P54" s="56" t="s">
-        <v>184</v>
+      <c r="P54" s="54" t="s">
+        <v>182</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>27</v>
@@ -4435,8 +4455,8 @@
       <c r="S54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W54" s="69"/>
-      <c r="X54" s="69"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="3" t="s">
@@ -4484,8 +4504,8 @@
       <c r="O55" s="1">
         <v>10</v>
       </c>
-      <c r="P55" s="57" t="s">
-        <v>185</v>
+      <c r="P55" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="Q55" s="5" t="s">
         <v>27</v>
@@ -4496,8 +4516,8 @@
       <c r="S55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W55" s="69"/>
-      <c r="X55" s="69"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="3" t="s">
@@ -4545,8 +4565,8 @@
       <c r="O56" s="1">
         <v>10</v>
       </c>
-      <c r="P56" s="58" t="s">
-        <v>186</v>
+      <c r="P56" s="56" t="s">
+        <v>184</v>
       </c>
       <c r="Q56" s="5" t="s">
         <v>27</v>
@@ -4557,8 +4577,8 @@
       <c r="S56" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W56" s="69"/>
-      <c r="X56" s="69"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="3" t="s">
@@ -4606,8 +4626,8 @@
       <c r="O57" s="1">
         <v>10</v>
       </c>
-      <c r="P57" s="59" t="s">
-        <v>187</v>
+      <c r="P57" s="57" t="s">
+        <v>185</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>26</v>
@@ -4618,7 +4638,7 @@
       <c r="S57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W57" s="69"/>
+      <c r="W57" s="67"/>
       <c r="X57" s="3"/>
     </row>
     <row r="58" spans="1:24">
@@ -4667,8 +4687,8 @@
       <c r="O58" s="1">
         <v>10</v>
       </c>
-      <c r="P58" s="60" t="s">
-        <v>188</v>
+      <c r="P58" s="58" t="s">
+        <v>186</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>27</v>
@@ -4679,8 +4699,8 @@
       <c r="S58" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="3" t="s">
@@ -4728,8 +4748,8 @@
       <c r="O59" s="1">
         <v>10</v>
       </c>
-      <c r="P59" s="61" t="s">
-        <v>189</v>
+      <c r="P59" s="59" t="s">
+        <v>187</v>
       </c>
       <c r="Q59" s="5" t="s">
         <v>27</v>
@@ -4740,8 +4760,8 @@
       <c r="S59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W59" s="69"/>
-      <c r="X59" s="69"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="3" t="s">
@@ -4789,8 +4809,8 @@
       <c r="O60" s="1">
         <v>10</v>
       </c>
-      <c r="P60" s="62" t="s">
-        <v>190</v>
+      <c r="P60" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>27</v>
@@ -4801,8 +4821,8 @@
       <c r="S60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W60" s="69"/>
-      <c r="X60" s="69"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="3" t="s">
@@ -4850,8 +4870,8 @@
       <c r="O61" s="1">
         <v>10</v>
       </c>
-      <c r="P61" s="63" t="s">
-        <v>191</v>
+      <c r="P61" s="61" t="s">
+        <v>189</v>
       </c>
       <c r="Q61" s="5" t="s">
         <v>27</v>
@@ -4862,8 +4882,8 @@
       <c r="S61" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W61" s="69"/>
-      <c r="X61" s="69"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="8" t="s">
@@ -4911,8 +4931,8 @@
       <c r="O62" s="1">
         <v>10</v>
       </c>
-      <c r="P62" s="64" t="s">
-        <v>192</v>
+      <c r="P62" s="62" t="s">
+        <v>190</v>
       </c>
       <c r="Q62" s="5" t="s">
         <v>26</v>
@@ -4923,7 +4943,7 @@
       <c r="S62" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W62" s="69"/>
+      <c r="W62" s="67"/>
       <c r="X62" s="3"/>
     </row>
     <row r="63" spans="1:24">
@@ -4972,8 +4992,8 @@
       <c r="O63" s="1">
         <v>10</v>
       </c>
-      <c r="P63" s="65" t="s">
-        <v>193</v>
+      <c r="P63" s="63" t="s">
+        <v>191</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>27</v>
@@ -4984,8 +5004,8 @@
       <c r="S63" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="8" t="s">
@@ -5033,8 +5053,8 @@
       <c r="O64" s="1">
         <v>10</v>
       </c>
-      <c r="P64" s="66" t="s">
-        <v>194</v>
+      <c r="P64" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>27</v>
@@ -5045,8 +5065,8 @@
       <c r="S64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W64" s="69"/>
-      <c r="X64" s="69"/>
+      <c r="W64" s="67"/>
+      <c r="X64" s="67"/>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="8" t="s">
@@ -5094,8 +5114,8 @@
       <c r="O65" s="1">
         <v>10</v>
       </c>
-      <c r="P65" s="67" t="s">
-        <v>195</v>
+      <c r="P65" s="65" t="s">
+        <v>193</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>27</v>
@@ -5106,8 +5126,8 @@
       <c r="S65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="8" t="s">
@@ -5155,8 +5175,8 @@
       <c r="O66" s="1">
         <v>10</v>
       </c>
-      <c r="P66" s="68" t="s">
-        <v>196</v>
+      <c r="P66" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>27</v>
@@ -5167,8 +5187,8 @@
       <c r="S66" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W66" s="69"/>
-      <c r="X66" s="69"/>
+      <c r="W66" s="67"/>
+      <c r="X66" s="67"/>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="3" t="s">
